--- a/project/files/gedney_adam-content_audit.xlsx
+++ b/project/files/gedney_adam-content_audit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="21120" windowHeight="17360" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="21120" windowHeight="17360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,12 +125,6 @@
     <t>/DOMAINNAMES</t>
   </si>
   <si>
-    <t>/EMAILACCOUNTS</t>
-  </si>
-  <si>
-    <t>/HOSTINGACCOUNTS</t>
-  </si>
-  <si>
     <t>/CONTACT</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>Each page template will contain a log, search and nav in the header for the desktop version. Mobile will have search at the bottom and a menu nav at the top. The logo will act as an escape hatch.</t>
+  </si>
+  <si>
+    <t>/EMAIL</t>
+  </si>
+  <si>
+    <t>/HOSTING</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:G21"/>
+    <sheetView showRuler="0" view="pageLayout" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1604,25 +1604,25 @@
         <v>30</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>54</v>
-      </c>
       <c r="H3" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1650,22 +1650,22 @@
         <v>31</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="43"/>
     </row>
@@ -1694,22 +1694,22 @@
         <v>32</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9" s="43"/>
     </row>
@@ -1735,25 +1735,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="45" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="43" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="43"/>
     </row>
@@ -1779,25 +1779,25 @@
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="45" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="43"/>
     </row>
@@ -1823,25 +1823,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="43"/>
     </row>
